--- a/D1 Planning and Requirements/Asclepius_Gantt.xlsx
+++ b/D1 Planning and Requirements/Asclepius_Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3F147-7AF0-4833-8BA3-44F3324D212E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7025B3FD-76BB-41BF-ADE6-AF4B12617DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>This is an empty row</t>
   </si>
@@ -1415,7 +1415,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>63</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
+          <xdr:colOff>228601</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
@@ -1752,8 +1752,8 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
     <col min="3" max="3" width="10.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
     <col min="9" max="64" width="3.5703125" customWidth="1"/>
@@ -4672,9 +4672,11 @@
       <c r="C21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F21" s="27">
         <v>43759</v>
@@ -5651,9 +5653,11 @@
       <c r="C25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="E25" s="26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F25" s="27">
         <v>43759</v>
